--- a/LF/PreTAS/Ivory Coast/civ_pretas_resultats.xlsx
+++ b/LF/PreTAS/Ivory Coast/civ_pretas_resultats.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbandubad\Repositories\dsa-forms\LF\PreTAS\Ivory Coast\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\LF\PreTAS\Ivory Coast\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{024F59C3-ACA5-4A4E-91BB-3A67DF2C0EDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="-17100" windowWidth="32475" windowHeight="16995"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -154,9 +155,6 @@
     <t>${nb_bandelette} &gt; 1</t>
   </si>
   <si>
-    <t>codeOperateur</t>
-  </si>
-  <si>
     <t>Code opérateurs</t>
   </si>
   <si>
@@ -322,12 +320,6 @@
     <t>code_genere</t>
   </si>
   <si>
-    <t>1.a. Saisir le code généré</t>
-  </si>
-  <si>
-    <t>1.b. Saisir le code généré</t>
-  </si>
-  <si>
     <t>code_genere2</t>
   </si>
   <si>
@@ -382,19 +374,28 @@
     <t>Le nombre de bandelette doit être 1 ou 2</t>
   </si>
   <si>
-    <t>Côte d'Ivoire - Pré TAS FL 2019 Résultats</t>
-  </si>
-  <si>
     <t>ci_pretas_lf_resultats</t>
   </si>
   <si>
     <t>start</t>
+  </si>
+  <si>
+    <t>1.a. Saisir le code généré. Ce code doit aussi être inscrit dans le test de diagnostic rapide tels que le FTS</t>
+  </si>
+  <si>
+    <t>1.b. Répéter le code généré</t>
+  </si>
+  <si>
+    <t>code_operateur</t>
+  </si>
+  <si>
+    <t>3. Côte d'Ivoire - Pré TAS FL Résultats</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -587,7 +588,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -873,28 +874,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18:B19"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="57.7109375" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" customWidth="1"/>
-    <col min="6" max="6" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" customWidth="1"/>
-    <col min="9" max="9" width="27.42578125" customWidth="1"/>
-    <col min="11" max="11" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.1171875" customWidth="1"/>
+    <col min="2" max="2" width="20.41015625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57.703125" customWidth="1"/>
+    <col min="4" max="4" width="24.29296875" customWidth="1"/>
+    <col min="6" max="6" width="24.703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.87890625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.703125" customWidth="1"/>
+    <col min="9" max="9" width="27.41015625" customWidth="1"/>
+    <col min="11" max="11" width="41.1171875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.6">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -902,10 +903,10 @@
         <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>5</v>
@@ -914,7 +915,7 @@
         <v>6</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>7</v>
@@ -926,112 +927,112 @@
         <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" t="s">
         <v>40</v>
-      </c>
-      <c r="C2" t="s">
-        <v>41</v>
       </c>
       <c r="J2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" t="s">
         <v>61</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="6" t="s">
         <v>62</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>63</v>
       </c>
       <c r="J3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A4" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A5" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5" t="s">
         <v>96</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" t="s">
         <v>99</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="G5" t="s">
-        <v>102</v>
-      </c>
       <c r="H5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A6" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D6" t="s">
-        <v>99</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>101</v>
-      </c>
       <c r="G6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B7" t="s">
         <v>22</v>
@@ -1040,18 +1041,18 @@
         <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
@@ -1063,7 +1064,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -1077,35 +1078,35 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1125,7 +1126,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -1142,7 +1143,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -1150,44 +1151,44 @@
         <v>37</v>
       </c>
       <c r="C14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" t="s">
         <v>84</v>
       </c>
-      <c r="B15" t="s">
-        <v>85</v>
-      </c>
       <c r="C15" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D15" s="5"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D16" s="5"/>
       <c r="H16" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -1195,18 +1196,18 @@
         <v>32</v>
       </c>
       <c r="C17" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B18" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -1214,7 +1215,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B22" s="7"/>
     </row>
   </sheetData>
@@ -1224,21 +1225,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="34" customWidth="1"/>
-    <col min="2" max="2" width="44.7109375" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.703125" customWidth="1"/>
+    <col min="3" max="3" width="19.1171875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="11" customFormat="1" ht="15.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
@@ -1246,10 +1247,10 @@
         <v>3</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -1260,7 +1261,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -1271,7 +1272,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -1282,182 +1283,182 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" t="s">
         <v>51</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" t="s">
         <v>52</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" t="s">
         <v>53</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" t="s">
         <v>54</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" t="s">
         <v>55</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A11" t="s">
         <v>56</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A13" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>67</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A14" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>69</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="C16" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>85</v>
-      </c>
-      <c r="B17" s="9" t="s">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A19" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A20" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>85</v>
-      </c>
-      <c r="B18" s="9" t="s">
+      <c r="C20" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A21" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C18" s="9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>85</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>85</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="C20" s="9" t="s">
+      <c r="C21" s="9" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>85</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B23">
         <v>10</v>
@@ -1466,9 +1467,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B24">
         <v>11</v>
@@ -1477,9 +1478,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B25">
         <v>12</v>
@@ -1488,9 +1489,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B26">
         <v>13</v>
@@ -1499,9 +1500,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B27">
         <v>14</v>
@@ -1510,9 +1511,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B28">
         <v>15</v>
@@ -1521,9 +1522,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B29">
         <v>16</v>
@@ -1532,9 +1533,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B30">
         <v>17</v>
@@ -1543,9 +1544,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B31">
         <v>18</v>
@@ -1554,9 +1555,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B32">
         <v>19</v>
@@ -1571,22 +1572,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="56" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1171875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1171875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5859375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1597,21 +1598,21 @@
         <v>13</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C2">
         <v>20200310</v>
       </c>
       <c r="D2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/LF/PreTAS/Ivory Coast/civ_pretas_resultats.xlsx
+++ b/LF/PreTAS/Ivory Coast/civ_pretas_resultats.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\LF\PreTAS\Ivory Coast\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbandubad\Repositories\dsa-forms\LF\PreTAS\Ivory Coast\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{024F59C3-ACA5-4A4E-91BB-3A67DF2C0EDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="25785" windowHeight="13980" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -374,9 +373,6 @@
     <t>Le nombre de bandelette doit être 1 ou 2</t>
   </si>
   <si>
-    <t>ci_pretas_lf_resultats</t>
-  </si>
-  <si>
     <t>start</t>
   </si>
   <si>
@@ -389,13 +385,16 @@
     <t>code_operateur</t>
   </si>
   <si>
-    <t>3. Côte d'Ivoire - Pré TAS FL Résultats</t>
+    <t>3. Côte d'Ivoire - Pré TAS FL Résultats V2</t>
+  </si>
+  <si>
+    <t>ci_pretas_lf_resultats_v2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -588,7 +587,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -874,7 +873,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -882,20 +881,20 @@
       <selection pane="bottomLeft" activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.1171875" customWidth="1"/>
-    <col min="2" max="2" width="20.41015625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="57.703125" customWidth="1"/>
-    <col min="4" max="4" width="24.29296875" customWidth="1"/>
-    <col min="6" max="6" width="24.703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.87890625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.703125" customWidth="1"/>
-    <col min="9" max="9" width="27.41015625" customWidth="1"/>
-    <col min="11" max="11" width="41.1171875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57.7109375" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+    <col min="9" max="9" width="27.42578125" customWidth="1"/>
+    <col min="11" max="11" width="41.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -933,12 +932,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>93</v>
       </c>
       <c r="B2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C2" t="s">
         <v>40</v>
@@ -947,7 +946,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>60</v>
       </c>
@@ -961,7 +960,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>21</v>
       </c>
@@ -978,7 +977,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>64</v>
       </c>
@@ -986,7 +985,7 @@
         <v>94</v>
       </c>
       <c r="C5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D5" t="s">
         <v>96</v>
@@ -1004,7 +1003,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>64</v>
       </c>
@@ -1012,7 +1011,7 @@
         <v>95</v>
       </c>
       <c r="C6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D6" t="s">
         <v>96</v>
@@ -1030,7 +1029,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>82</v>
       </c>
@@ -1050,7 +1049,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>64</v>
       </c>
@@ -1064,7 +1063,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -1078,7 +1077,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>80</v>
       </c>
@@ -1092,7 +1091,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1106,7 +1105,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1126,7 +1125,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -1143,7 +1142,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -1160,7 +1159,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>83</v>
       </c>
@@ -1173,7 +1172,7 @@
       <c r="D15" s="5"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -1188,7 +1187,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -1199,15 +1198,15 @@
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B18" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.5">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -1215,7 +1214,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B22" s="7"/>
     </row>
   </sheetData>
@@ -1225,21 +1224,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34" customWidth="1"/>
-    <col min="2" max="2" width="44.703125" customWidth="1"/>
-    <col min="3" max="3" width="19.1171875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="11" customFormat="1" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
@@ -1250,7 +1249,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -1261,7 +1260,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -1272,7 +1271,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -1283,7 +1282,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -1294,7 +1293,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>56</v>
       </c>
@@ -1305,7 +1304,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>56</v>
       </c>
@@ -1316,7 +1315,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>56</v>
       </c>
@@ -1327,7 +1326,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>56</v>
       </c>
@@ -1338,7 +1337,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>56</v>
       </c>
@@ -1349,7 +1348,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>56</v>
       </c>
@@ -1360,7 +1359,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>61</v>
       </c>
@@ -1373,7 +1372,7 @@
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>61</v>
       </c>
@@ -1386,7 +1385,7 @@
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>84</v>
       </c>
@@ -1397,7 +1396,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>84</v>
       </c>
@@ -1408,7 +1407,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>84</v>
       </c>
@@ -1419,7 +1418,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>84</v>
       </c>
@@ -1430,7 +1429,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>84</v>
       </c>
@@ -1441,7 +1440,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>84</v>
       </c>
@@ -1452,11 +1451,11 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>81</v>
       </c>
@@ -1467,7 +1466,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>81</v>
       </c>
@@ -1478,7 +1477,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>81</v>
       </c>
@@ -1489,7 +1488,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>81</v>
       </c>
@@ -1500,7 +1499,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>81</v>
       </c>
@@ -1511,7 +1510,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>81</v>
       </c>
@@ -1522,7 +1521,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>81</v>
       </c>
@@ -1533,7 +1532,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>81</v>
       </c>
@@ -1544,7 +1543,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>81</v>
       </c>
@@ -1555,7 +1554,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>81</v>
       </c>
@@ -1572,22 +1571,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="56" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.1171875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1171875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5859375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1601,12 +1600,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" t="s">
         <v>118</v>
-      </c>
-      <c r="B2" t="s">
-        <v>113</v>
       </c>
       <c r="C2">
         <v>20200310</v>

--- a/LF/PreTAS/Ivory Coast/civ_pretas_resultats.xlsx
+++ b/LF/PreTAS/Ivory Coast/civ_pretas_resultats.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="25785" windowHeight="13980" activeTab="2"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="25785" windowHeight="13980"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="124">
   <si>
     <t>form_title</t>
   </si>
@@ -244,9 +244,6 @@
     <t>G_Autre_expliquer</t>
   </si>
   <si>
-    <t>${fts1_invalid_description}='G_Autre_expliquer'</t>
-  </si>
-  <si>
     <t>hint::French</t>
   </si>
   <si>
@@ -389,6 +386,24 @@
   </si>
   <si>
     <t>ci_pretas_lf_resultats_v2</t>
+  </si>
+  <si>
+    <t>fts2_invalid_description</t>
+  </si>
+  <si>
+    <t>Description d’invalidation de test 2</t>
+  </si>
+  <si>
+    <t>${resultat_fts2} = '3_Invalide'</t>
+  </si>
+  <si>
+    <t>autre_expliquer_fts2</t>
+  </si>
+  <si>
+    <t>selected(${fts1_invalid_description}, 'G_Autre_expliquer')</t>
+  </si>
+  <si>
+    <t>selected(${fts2_invalid_description}, 'G_Autre_expliquer')</t>
   </si>
 </sst>
 </file>
@@ -874,11 +889,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10:XFD10"/>
+      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -902,10 +917,10 @@
         <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>5</v>
@@ -914,7 +929,7 @@
         <v>6</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>7</v>
@@ -926,7 +941,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>10</v>
@@ -934,10 +949,10 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C2" t="s">
         <v>40</v>
@@ -971,7 +986,7 @@
         <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J4" t="s">
         <v>12</v>
@@ -982,22 +997,22 @@
         <v>64</v>
       </c>
       <c r="B5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>97</v>
-      </c>
       <c r="G5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J5" t="s">
         <v>12</v>
@@ -1008,22 +1023,22 @@
         <v>64</v>
       </c>
       <c r="B6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6" t="s">
         <v>95</v>
       </c>
-      <c r="C6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D6" t="s">
-        <v>96</v>
-      </c>
       <c r="F6" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J6" t="s">
         <v>12</v>
@@ -1031,7 +1046,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B7" t="s">
         <v>22</v>
@@ -1040,10 +1055,10 @@
         <v>16</v>
       </c>
       <c r="F7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G7" t="s">
         <v>111</v>
-      </c>
-      <c r="G7" t="s">
-        <v>112</v>
       </c>
       <c r="J7" t="s">
         <v>12</v>
@@ -1079,7 +1094,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B10" t="s">
         <v>42</v>
@@ -1096,13 +1111,13 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>59</v>
       </c>
       <c r="H11" t="s">
-        <v>70</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -1144,78 +1159,106 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>118</v>
       </c>
       <c r="C14" t="s">
-        <v>101</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>104</v>
+        <v>119</v>
+      </c>
+      <c r="H14" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>84</v>
-      </c>
-      <c r="C15" t="s">
-        <v>102</v>
-      </c>
-      <c r="D15" s="5"/>
-      <c r="H15" s="1"/>
+        <v>121</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H15" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" t="s">
+        <v>101</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>11</v>
       </c>
-      <c r="B16" t="s">
-        <v>92</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B18" t="s">
         <v>91</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="H16" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="C18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="H18" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>11</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B19" t="s">
         <v>32</v>
       </c>
-      <c r="C17" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>113</v>
-      </c>
-      <c r="B18" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="C19" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>112</v>
+      </c>
+      <c r="B20" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>14</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B21" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="7"/>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1246,7 +1289,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1387,68 +1430,68 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>85</v>
-      </c>
       <c r="C16" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1457,7 +1500,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B23">
         <v>10</v>
@@ -1468,7 +1511,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B24">
         <v>11</v>
@@ -1479,7 +1522,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B25">
         <v>12</v>
@@ -1490,7 +1533,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B26">
         <v>13</v>
@@ -1501,7 +1544,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B27">
         <v>14</v>
@@ -1512,7 +1555,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B28">
         <v>15</v>
@@ -1523,7 +1566,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B29">
         <v>16</v>
@@ -1534,7 +1577,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B30">
         <v>17</v>
@@ -1545,7 +1588,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B31">
         <v>18</v>
@@ -1556,7 +1599,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B32">
         <v>19</v>
@@ -1574,7 +1617,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+    <sheetView zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1597,21 +1640,21 @@
         <v>13</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" t="s">
         <v>117</v>
-      </c>
-      <c r="B2" t="s">
-        <v>118</v>
       </c>
       <c r="C2">
         <v>20200310</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/LF/PreTAS/Ivory Coast/civ_pretas_resultats.xlsx
+++ b/LF/PreTAS/Ivory Coast/civ_pretas_resultats.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="25785" windowHeight="13980"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="20580" windowHeight="7740"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="115">
   <si>
     <t>form_title</t>
   </si>
@@ -82,27 +82,9 @@
     <t>1. Code barre</t>
   </si>
   <si>
-    <t>2. Nombre de Bandelette FTS utilisée pour tester l’individu</t>
-  </si>
-  <si>
-    <t>3. Lots FTS1</t>
-  </si>
-  <si>
-    <t>4. Résultats FTS1</t>
-  </si>
-  <si>
-    <t>5. Lots FTS2</t>
-  </si>
-  <si>
-    <t>6. Résultats FTS2</t>
-  </si>
-  <si>
     <t>barcode</t>
   </si>
   <si>
-    <t>nb_bandelette</t>
-  </si>
-  <si>
     <t>1 Positif</t>
   </si>
   <si>
@@ -133,36 +115,15 @@
     <t>observations</t>
   </si>
   <si>
-    <t>lot_fts1</t>
-  </si>
-  <si>
-    <t>lot_fts2</t>
-  </si>
-  <si>
-    <t>resultat_fts1</t>
-  </si>
-  <si>
-    <t>resultat_fts2</t>
-  </si>
-  <si>
     <t>photo</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>${nb_bandelette} &gt; 1</t>
-  </si>
-  <si>
     <t>Code opérateurs</t>
   </si>
   <si>
     <t>Description d’invalidation de test 1</t>
   </si>
   <si>
-    <t>fts1_invalid_description</t>
-  </si>
-  <si>
     <t>A. Absence de ligne témoin</t>
   </si>
   <si>
@@ -205,9 +166,6 @@
     <t>invalid_desc_list</t>
   </si>
   <si>
-    <t>${resultat_fts1} = '3_Invalide'</t>
-  </si>
-  <si>
     <t>Prendre les photos uniquement des invalide</t>
   </si>
   <si>
@@ -247,9 +205,6 @@
     <t>hint::French</t>
   </si>
   <si>
-    <t>autre_expliquer_fts1</t>
-  </si>
-  <si>
     <t>label::French</t>
   </si>
   <si>
@@ -277,9 +232,6 @@
     <t>operateur</t>
   </si>
   <si>
-    <t>integer</t>
-  </si>
-  <si>
     <t>select_one defis_operationnels</t>
   </si>
   <si>
@@ -343,9 +295,6 @@
     <t>9. Observations</t>
   </si>
   <si>
-    <t xml:space="preserve">${resultat_fts1} = '1_Positif' or ${resultat_fts1} = '3_Invalide'  or ${resultat_fts2} = '1_Positif' or ${resultat_fts2} = '3_Invalide' </t>
-  </si>
-  <si>
     <t>Plusieurs.kits.dans.un.seul.sachet</t>
   </si>
   <si>
@@ -382,28 +331,52 @@
     <t>code_operateur</t>
   </si>
   <si>
-    <t>3. Côte d'Ivoire - Pré TAS FL Résultats V2</t>
-  </si>
-  <si>
-    <t>ci_pretas_lf_resultats_v2</t>
-  </si>
-  <si>
-    <t>fts2_invalid_description</t>
-  </si>
-  <si>
-    <t>Description d’invalidation de test 2</t>
-  </si>
-  <si>
-    <t>${resultat_fts2} = '3_Invalide'</t>
-  </si>
-  <si>
-    <t>autre_expliquer_fts2</t>
-  </si>
-  <si>
-    <t>selected(${fts1_invalid_description}, 'G_Autre_expliquer')</t>
-  </si>
-  <si>
-    <t>selected(${fts2_invalid_description}, 'G_Autre_expliquer')</t>
+    <t>ci_pretas_lf_resultats_v3</t>
+  </si>
+  <si>
+    <t>3. Côte d'Ivoire - Pré TAS FL Résultats V3</t>
+  </si>
+  <si>
+    <t>lot_fts</t>
+  </si>
+  <si>
+    <t>resultat_fts</t>
+  </si>
+  <si>
+    <t>fts_invalid_description</t>
+  </si>
+  <si>
+    <t>autre_expliquer_fts</t>
+  </si>
+  <si>
+    <t>${resultat_fts} = '3_Invalide'</t>
+  </si>
+  <si>
+    <t>selected(${fts_invalid_description}, 'G_Autre_expliquer')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${resultat_fts} = '1_Positif' or ${resultat_fts} = '3_Invalide' </t>
+  </si>
+  <si>
+    <t>3. Lots FTS</t>
+  </si>
+  <si>
+    <t>4. Résultats FTS</t>
+  </si>
+  <si>
+    <t>1er Test</t>
+  </si>
+  <si>
+    <t>2ème Test</t>
+  </si>
+  <si>
+    <t>Est-ce le premier ou deuxème test du participant?</t>
+  </si>
+  <si>
+    <t>num_test</t>
+  </si>
+  <si>
+    <t>select_one num_test</t>
   </si>
 </sst>
 </file>
@@ -889,11 +862,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -917,10 +890,10 @@
         <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>5</v>
@@ -929,7 +902,7 @@
         <v>6</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>7</v>
@@ -941,7 +914,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>10</v>
@@ -949,13 +922,13 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
         <v>12</v>
@@ -963,13 +936,13 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="J3" t="s">
         <v>12</v>
@@ -977,16 +950,16 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="J4" t="s">
         <v>12</v>
@@ -994,25 +967,25 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="C5" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="D5" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="H5" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="J5" t="s">
         <v>12</v>
@@ -1020,25 +993,25 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="C6" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="D6" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="H6" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="J6" t="s">
         <v>12</v>
@@ -1046,19 +1019,19 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>112</v>
       </c>
       <c r="F7" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="G7" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="J7" t="s">
         <v>12</v>
@@ -1066,13 +1039,13 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="J8" t="s">
         <v>12</v>
@@ -1080,13 +1053,13 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>102</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="J9" t="s">
         <v>12</v>
@@ -1094,16 +1067,16 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H10" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1111,64 +1084,58 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="H11" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" t="s">
-        <v>39</v>
-      </c>
-      <c r="J12" t="s">
-        <v>12</v>
+        <v>84</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" t="s">
-        <v>39</v>
-      </c>
-      <c r="J13" t="s">
-        <v>12</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>118</v>
+        <v>75</v>
       </c>
       <c r="C14" t="s">
-        <v>119</v>
-      </c>
-      <c r="H14" t="s">
-        <v>120</v>
+        <v>74</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="H14" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1176,89 +1143,30 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>121</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H15" t="s">
-        <v>123</v>
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>83</v>
-      </c>
-      <c r="C17" t="s">
-        <v>101</v>
-      </c>
-      <c r="D17" s="5"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" t="s">
-        <v>91</v>
-      </c>
-      <c r="C18" t="s">
-        <v>90</v>
-      </c>
-      <c r="D18" s="5"/>
-      <c r="H18" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>112</v>
-      </c>
-      <c r="B20" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
         <v>14</v>
       </c>
-      <c r="B21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="7"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1268,10 +1176,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1289,209 +1197,209 @@
         <v>3</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1500,7 +1408,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="B23">
         <v>10</v>
@@ -1511,7 +1419,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="B24">
         <v>11</v>
@@ -1522,7 +1430,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="B25">
         <v>12</v>
@@ -1533,7 +1441,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="B26">
         <v>13</v>
@@ -1544,7 +1452,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="B27">
         <v>14</v>
@@ -1555,7 +1463,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="B28">
         <v>15</v>
@@ -1566,7 +1474,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="B29">
         <v>16</v>
@@ -1577,7 +1485,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="B30">
         <v>17</v>
@@ -1588,7 +1496,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="B31">
         <v>18</v>
@@ -1599,13 +1507,35 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="B32">
         <v>19</v>
       </c>
       <c r="C32">
         <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>113</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>113</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1618,7 +1548,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1640,21 +1570,21 @@
         <v>13</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="C2">
         <v>20200310</v>
       </c>
       <c r="D2" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/LF/PreTAS/Ivory Coast/civ_pretas_resultats.xlsx
+++ b/LF/PreTAS/Ivory Coast/civ_pretas_resultats.xlsx
@@ -24,15 +24,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="119">
   <si>
     <t>form_title</t>
   </si>
@@ -121,9 +118,6 @@
     <t>Code opérateurs</t>
   </si>
   <si>
-    <t>Description d’invalidation de test 1</t>
-  </si>
-  <si>
     <t>A. Absence de ligne témoin</t>
   </si>
   <si>
@@ -169,9 +163,6 @@
     <t>Prendre les photos uniquement des invalide</t>
   </si>
   <si>
-    <t>Si Autre (expliquer)</t>
-  </si>
-  <si>
     <t>select_one optionscanner</t>
   </si>
   <si>
@@ -265,33 +256,9 @@
     <t>select_one operateur</t>
   </si>
   <si>
-    <t>code_genere</t>
-  </si>
-  <si>
-    <t>code_genere2</t>
-  </si>
-  <si>
-    <t>Exemple "100-0001"</t>
-  </si>
-  <si>
-    <t>regex(., '^[0-9]{3}-[0-9]{4}$')</t>
-  </si>
-  <si>
-    <t>. = ${code_genere}</t>
-  </si>
-  <si>
-    <t>Le format est incorrect. Il doit être du type 123-1234</t>
-  </si>
-  <si>
     <t>Le code n'est pas le même</t>
   </si>
   <si>
-    <t>7. Photos</t>
-  </si>
-  <si>
-    <t>8. Défis opérationnels observés</t>
-  </si>
-  <si>
     <t>9. Observations</t>
   </si>
   <si>
@@ -322,21 +289,9 @@
     <t>start</t>
   </si>
   <si>
-    <t>1.a. Saisir le code généré. Ce code doit aussi être inscrit dans le test de diagnostic rapide tels que le FTS</t>
-  </si>
-  <si>
-    <t>1.b. Répéter le code généré</t>
-  </si>
-  <si>
     <t>code_operateur</t>
   </si>
   <si>
-    <t>ci_pretas_lf_resultats_v3</t>
-  </si>
-  <si>
-    <t>3. Côte d'Ivoire - Pré TAS FL Résultats V3</t>
-  </si>
-  <si>
     <t>lot_fts</t>
   </si>
   <si>
@@ -377,6 +332,60 @@
   </si>
   <si>
     <t>select_one num_test</t>
+  </si>
+  <si>
+    <t>ci_pretas_lf_resultats_v4</t>
+  </si>
+  <si>
+    <t>3. Côte d'Ivoire - Pré TAS FL Résultats V4</t>
+  </si>
+  <si>
+    <t>final_result</t>
+  </si>
+  <si>
+    <t>${num_test} = '2'</t>
+  </si>
+  <si>
+    <t>1.a. Saisir le code d'identification Ce code doit aussi être inscrit dans le test de diagnostic rapide tels que le FTS</t>
+  </si>
+  <si>
+    <t>1.b. Répéter le code d'identification</t>
+  </si>
+  <si>
+    <t>code_id</t>
+  </si>
+  <si>
+    <t>code_id2</t>
+  </si>
+  <si>
+    <t>. = ${code_id}</t>
+  </si>
+  <si>
+    <t>Exemple "190005"</t>
+  </si>
+  <si>
+    <t>regex(., '^[0-9]{6}$')</t>
+  </si>
+  <si>
+    <t>Le format est incorrect.</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>5a. Description d’invalidation de test 1</t>
+  </si>
+  <si>
+    <t>5b. Si Autre (expliquer)</t>
+  </si>
+  <si>
+    <t>6. Photos</t>
+  </si>
+  <si>
+    <t>7. Défis opérationnels observés</t>
+  </si>
+  <si>
+    <t>8. Interprétation du résultat final des deux tests</t>
   </si>
 </sst>
 </file>
@@ -862,11 +871,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -890,10 +899,10 @@
         <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>5</v>
@@ -902,7 +911,7 @@
         <v>6</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>7</v>
@@ -914,7 +923,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>10</v>
@@ -922,10 +931,10 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -936,13 +945,13 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="B3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>48</v>
       </c>
       <c r="J3" t="s">
         <v>12</v>
@@ -953,13 +962,13 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J4" t="s">
         <v>12</v>
@@ -967,25 +976,25 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>50</v>
+        <v>113</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D5" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="G5" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="H5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J5" t="s">
         <v>12</v>
@@ -993,25 +1002,25 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>50</v>
+        <v>113</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="C6" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="D6" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="G6" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="H6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J6" t="s">
         <v>12</v>
@@ -1019,19 +1028,19 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="B7" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="C7" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="F7" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="G7" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="J7" t="s">
         <v>12</v>
@@ -1039,13 +1048,13 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="C8" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="J8" t="s">
         <v>12</v>
@@ -1056,10 +1065,10 @@
         <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="C9" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="J9" t="s">
         <v>12</v>
@@ -1067,16 +1076,16 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B10" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>114</v>
       </c>
       <c r="H10" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1084,13 +1093,13 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="H11" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -1101,24 +1110,24 @@
         <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="D13" s="5"/>
       <c r="H13" s="1"/>
@@ -1128,45 +1137,62 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D14" s="5"/>
       <c r="H14" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>86</v>
+        <v>103</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="H15" t="s">
+        <v>104</v>
+      </c>
+      <c r="J15" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>95</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>95</v>
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>14</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="7"/>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1197,7 +1223,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1235,171 +1261,171 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>67</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1408,7 +1434,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B23">
         <v>10</v>
@@ -1419,7 +1445,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B24">
         <v>11</v>
@@ -1430,7 +1456,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B25">
         <v>12</v>
@@ -1441,7 +1467,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B26">
         <v>13</v>
@@ -1452,7 +1478,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B27">
         <v>14</v>
@@ -1463,7 +1489,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B28">
         <v>15</v>
@@ -1474,7 +1500,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B29">
         <v>16</v>
@@ -1485,7 +1511,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B30">
         <v>17</v>
@@ -1496,7 +1522,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B31">
         <v>18</v>
@@ -1507,7 +1533,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B32">
         <v>19</v>
@@ -1518,24 +1544,24 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="B34">
         <v>2</v>
       </c>
       <c r="C34" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1570,21 +1596,21 @@
         <v>13</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C2">
-        <v>20200310</v>
+        <v>20200320</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/LF/PreTAS/Ivory Coast/civ_pretas_resultats.xlsx
+++ b/LF/PreTAS/Ivory Coast/civ_pretas_resultats.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbandubad\Repositories\dsa-forms\LF\PreTAS\Ivory Coast\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\LF\PreTAS\Ivory Coast\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE13C29-F019-4782-9FDD-2D407C4ED686}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="20580" windowHeight="7740"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="118">
   <si>
     <t>form_title</t>
   </si>
@@ -361,18 +362,9 @@
     <t>. = ${code_id}</t>
   </si>
   <si>
-    <t>Exemple "190005"</t>
-  </si>
-  <si>
-    <t>regex(., '^[0-9]{6}$')</t>
-  </si>
-  <si>
     <t>Le format est incorrect.</t>
   </si>
   <si>
-    <t>integer</t>
-  </si>
-  <si>
     <t>5a. Description d’invalidation de test 1</t>
   </si>
   <si>
@@ -386,12 +378,18 @@
   </si>
   <si>
     <t>8. Interprétation du résultat final des deux tests</t>
+  </si>
+  <si>
+    <t>Exemple "190-123456"</t>
+  </si>
+  <si>
+    <t>regex(., '^[0-9]{3}-[0-9]{6}$')</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -584,7 +582,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -870,28 +868,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="57.7109375" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" customWidth="1"/>
-    <col min="6" max="6" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" customWidth="1"/>
-    <col min="9" max="9" width="27.42578125" customWidth="1"/>
-    <col min="11" max="11" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.1171875" customWidth="1"/>
+    <col min="2" max="2" width="20.41015625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57.703125" customWidth="1"/>
+    <col min="4" max="4" width="24.29296875" customWidth="1"/>
+    <col min="6" max="6" width="24.703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.87890625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.703125" customWidth="1"/>
+    <col min="9" max="9" width="27.41015625" customWidth="1"/>
+    <col min="11" max="11" width="41.1171875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.6">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -929,7 +927,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -943,7 +941,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A3" s="4" t="s">
         <v>44</v>
       </c>
@@ -957,7 +955,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A4" s="4" t="s">
         <v>16</v>
       </c>
@@ -974,9 +972,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A5" s="4" t="s">
-        <v>113</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
         <v>107</v>
@@ -985,13 +983,13 @@
         <v>105</v>
       </c>
       <c r="D5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="G5" t="s">
         <v>110</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="G5" t="s">
-        <v>112</v>
       </c>
       <c r="H5" t="s">
         <v>61</v>
@@ -1000,9 +998,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A6" s="4" t="s">
-        <v>113</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
         <v>108</v>
@@ -1011,7 +1009,7 @@
         <v>106</v>
       </c>
       <c r="D6" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>109</v>
@@ -1026,7 +1024,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>100</v>
       </c>
@@ -1046,7 +1044,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>48</v>
       </c>
@@ -1060,7 +1058,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -1074,7 +1072,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>62</v>
       </c>
@@ -1082,13 +1080,13 @@
         <v>89</v>
       </c>
       <c r="C10" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H10" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1096,13 +1094,13 @@
         <v>90</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H11" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -1110,7 +1108,7 @@
         <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>43</v>
@@ -1119,7 +1117,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>64</v>
       </c>
@@ -1127,12 +1125,12 @@
         <v>65</v>
       </c>
       <c r="C13" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D13" s="5"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1147,7 +1145,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -1155,7 +1153,7 @@
         <v>103</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H15" t="s">
         <v>104</v>
@@ -1164,7 +1162,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -1175,7 +1173,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>85</v>
       </c>
@@ -1183,7 +1181,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -1191,7 +1189,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
       <c r="B21" s="7"/>
     </row>
   </sheetData>
@@ -1201,21 +1199,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="34" customWidth="1"/>
-    <col min="2" max="2" width="44.7109375" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.703125" customWidth="1"/>
+    <col min="3" max="3" width="19.1171875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="11" customFormat="1" ht="15.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
@@ -1226,7 +1224,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -1237,7 +1235,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -1248,7 +1246,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -1259,7 +1257,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -1270,7 +1268,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -1281,7 +1279,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -1292,7 +1290,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -1303,7 +1301,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -1314,7 +1312,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -1325,7 +1323,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>42</v>
       </c>
@@ -1336,7 +1334,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A13" s="5" t="s">
         <v>45</v>
       </c>
@@ -1349,7 +1347,7 @@
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A14" s="5" t="s">
         <v>45</v>
       </c>
@@ -1362,7 +1360,7 @@
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>65</v>
       </c>
@@ -1373,7 +1371,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>65</v>
       </c>
@@ -1384,7 +1382,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>65</v>
       </c>
@@ -1395,7 +1393,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>65</v>
       </c>
@@ -1406,7 +1404,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>65</v>
       </c>
@@ -1417,7 +1415,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>65</v>
       </c>
@@ -1428,11 +1426,11 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>63</v>
       </c>
@@ -1443,7 +1441,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
         <v>63</v>
       </c>
@@ -1454,7 +1452,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
         <v>63</v>
       </c>
@@ -1465,7 +1463,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
         <v>63</v>
       </c>
@@ -1476,7 +1474,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
         <v>63</v>
       </c>
@@ -1487,7 +1485,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
         <v>63</v>
       </c>
@@ -1498,7 +1496,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
         <v>63</v>
       </c>
@@ -1509,7 +1507,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
         <v>63</v>
       </c>
@@ -1520,7 +1518,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A31" t="s">
         <v>63</v>
       </c>
@@ -1531,7 +1529,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A32" t="s">
         <v>63</v>
       </c>
@@ -1542,7 +1540,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A33" t="s">
         <v>99</v>
       </c>
@@ -1553,7 +1551,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A34" t="s">
         <v>99</v>
       </c>
@@ -1570,22 +1568,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="56" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1171875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1171875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5859375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1599,7 +1597,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
         <v>102</v>
       </c>

--- a/LF/PreTAS/Ivory Coast/civ_pretas_resultats.xlsx
+++ b/LF/PreTAS/Ivory Coast/civ_pretas_resultats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\LF\PreTAS\Ivory Coast\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE13C29-F019-4782-9FDD-2D407C4ED686}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2CC37B2-EB2C-4DEB-9790-0AAC4ED9DA95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="106">
   <si>
     <t>form_title</t>
   </si>
@@ -77,12 +77,6 @@
     <t>end</t>
   </si>
   <si>
-    <t>1. Code barre</t>
-  </si>
-  <si>
-    <t>barcode</t>
-  </si>
-  <si>
     <t>1 Positif</t>
   </si>
   <si>
@@ -164,33 +158,9 @@
     <t>Prendre les photos uniquement des invalide</t>
   </si>
   <si>
-    <t>select_one optionscanner</t>
-  </si>
-  <si>
-    <t>optionscanner</t>
-  </si>
-  <si>
-    <t>Souhaitez-vous scanner ou saisir manuellement le code-barres?</t>
-  </si>
-  <si>
-    <t>code_barre</t>
-  </si>
-  <si>
     <t>string</t>
   </si>
   <si>
-    <t>scanner</t>
-  </si>
-  <si>
-    <t>Scanner</t>
-  </si>
-  <si>
-    <t>manuel</t>
-  </si>
-  <si>
-    <t>Manuel</t>
-  </si>
-  <si>
     <t>G_Autre_expliquer</t>
   </si>
   <si>
@@ -212,12 +182,6 @@
     <t>French</t>
   </si>
   <si>
-    <t>${optionscanner}='scanner'</t>
-  </si>
-  <si>
-    <t>${optionscanner}='manuel'</t>
-  </si>
-  <si>
     <t>select_one invalid_desc_list</t>
   </si>
   <si>
@@ -335,12 +299,6 @@
     <t>select_one num_test</t>
   </si>
   <si>
-    <t>ci_pretas_lf_resultats_v4</t>
-  </si>
-  <si>
-    <t>3. Côte d'Ivoire - Pré TAS FL Résultats V4</t>
-  </si>
-  <si>
     <t>final_result</t>
   </si>
   <si>
@@ -384,6 +342,12 @@
   </si>
   <si>
     <t>regex(., '^[0-9]{3}-[0-9]{6}$')</t>
+  </si>
+  <si>
+    <t>3. Côte d'Ivoire - Pré TAS FL Résultats V5</t>
+  </si>
+  <si>
+    <t>ci_pretas_lf_resultats_v5</t>
   </si>
 </sst>
 </file>
@@ -457,18 +421,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -512,7 +470,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -523,7 +481,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -869,11 +826,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -897,10 +854,10 @@
         <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>5</v>
@@ -909,7 +866,7 @@
         <v>6</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>7</v>
@@ -921,7 +878,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>10</v>
@@ -929,13 +886,13 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" t="s">
         <v>74</v>
       </c>
-      <c r="B2" t="s">
-        <v>86</v>
-      </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J2" t="s">
         <v>12</v>
@@ -943,13 +900,22 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A3" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>46</v>
+        <v>93</v>
+      </c>
+      <c r="C3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G3" t="s">
+        <v>96</v>
       </c>
       <c r="J3" t="s">
         <v>12</v>
@@ -957,68 +923,56 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A4" s="4" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" t="s">
-        <v>60</v>
+        <v>92</v>
+      </c>
+      <c r="D4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G4" t="s">
+        <v>63</v>
       </c>
       <c r="J4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A5" s="4" t="s">
-        <v>48</v>
+      <c r="A5" t="s">
+        <v>88</v>
       </c>
       <c r="B5" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="C5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D5" t="s">
-        <v>116</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>117</v>
+        <v>86</v>
+      </c>
+      <c r="F5" t="s">
+        <v>71</v>
       </c>
       <c r="G5" t="s">
-        <v>110</v>
-      </c>
-      <c r="H5" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="J5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A6" s="4" t="s">
-        <v>48</v>
+      <c r="A6" t="s">
+        <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>106</v>
-      </c>
-      <c r="D6" t="s">
-        <v>116</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="G6" t="s">
-        <v>75</v>
-      </c>
-      <c r="H6" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="J6" t="s">
         <v>12</v>
@@ -1026,19 +980,13 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="C7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F7" t="s">
         <v>83</v>
-      </c>
-      <c r="G7" t="s">
-        <v>84</v>
       </c>
       <c r="J7" t="s">
         <v>12</v>
@@ -1046,151 +994,123 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C8" t="s">
-        <v>94</v>
-      </c>
-      <c r="J8" t="s">
-        <v>12</v>
+        <v>97</v>
+      </c>
+      <c r="H8" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>88</v>
-      </c>
-      <c r="C9" t="s">
-        <v>95</v>
-      </c>
-      <c r="J9" t="s">
-        <v>12</v>
+        <v>78</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="H9" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>111</v>
-      </c>
-      <c r="H10" t="s">
-        <v>91</v>
+        <v>99</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="B11" t="s">
-        <v>90</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="H11" t="s">
-        <v>92</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C12" t="s">
-        <v>113</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>43</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="D12" s="5"/>
       <c r="H12" s="1" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" t="s">
-        <v>114</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="H13" s="1"/>
+        <v>89</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="H13" t="s">
+        <v>90</v>
+      </c>
+      <c r="J13" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>72</v>
-      </c>
-      <c r="D14" s="5"/>
-      <c r="H14" s="1" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="B15" t="s">
-        <v>103</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="H15" t="s">
-        <v>104</v>
-      </c>
-      <c r="J15" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A17" t="s">
-        <v>85</v>
-      </c>
-      <c r="B17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A18" t="s">
         <v>14</v>
       </c>
-      <c r="B18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="B21" s="7"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B19" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1200,10 +1120,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -1213,353 +1133,327 @@
     <col min="3" max="3" width="19.1171875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="11" customFormat="1" ht="15.7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:3" s="10" customFormat="1" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A15" t="s">
         <v>53</v>
       </c>
-      <c r="C11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A13" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A14" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B15" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>66</v>
+        <v>53</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
-        <v>65</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>67</v>
+        <v>53</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>68</v>
+        <v>53</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A19" t="s">
-        <v>65</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>69</v>
-      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
-        <v>65</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>70</v>
+        <v>51</v>
+      </c>
+      <c r="B20">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
-        <v>65</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>71</v>
+        <v>51</v>
+      </c>
+      <c r="B21">
+        <v>11</v>
+      </c>
+      <c r="C21">
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
+      <c r="A22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22">
+        <v>12</v>
+      </c>
+      <c r="C22">
+        <v>12</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="B23">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C23">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="B24">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C24">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="B25">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C25">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="B26">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C26">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="B27">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C27">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="B28">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C28">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="B29">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C29">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="B30">
-        <v>17</v>
-      </c>
-      <c r="C30">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A31" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="B31">
-        <v>18</v>
-      </c>
-      <c r="C31">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A32" t="s">
-        <v>63</v>
-      </c>
-      <c r="B32">
-        <v>19</v>
-      </c>
-      <c r="C32">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A33" t="s">
-        <v>99</v>
-      </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A34" t="s">
-        <v>99</v>
-      </c>
-      <c r="B34">
         <v>2</v>
       </c>
-      <c r="C34" t="s">
-        <v>97</v>
+      <c r="C31" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1572,7 +1466,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -1584,31 +1478,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="13" t="s">
-        <v>58</v>
+      <c r="D1" s="12" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C2">
-        <v>20200320</v>
+        <v>20200817</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/LF/PreTAS/Ivory Coast/civ_pretas_resultats.xlsx
+++ b/LF/PreTAS/Ivory Coast/civ_pretas_resultats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\LF\PreTAS\Ivory Coast\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2CC37B2-EB2C-4DEB-9790-0AAC4ED9DA95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{030DF43F-6106-456F-88C2-B0A54EA5A7F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -344,10 +344,10 @@
     <t>regex(., '^[0-9]{3}-[0-9]{6}$')</t>
   </si>
   <si>
-    <t>3. Côte d'Ivoire - Pré TAS FL Résultats V5</t>
-  </si>
-  <si>
-    <t>ci_pretas_lf_resultats_v5</t>
+    <t>ci_pretas_lf_resultats_v6</t>
+  </si>
+  <si>
+    <t>3. Côte d'Ivoire - Pré TAS FL Résultats V6</t>
   </si>
 </sst>
 </file>
@@ -828,25 +828,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.1171875" customWidth="1"/>
-    <col min="2" max="2" width="20.41015625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="57.703125" customWidth="1"/>
-    <col min="4" max="4" width="24.29296875" customWidth="1"/>
-    <col min="6" max="6" width="24.703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.87890625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.703125" customWidth="1"/>
-    <col min="9" max="9" width="27.41015625" customWidth="1"/>
-    <col min="11" max="11" width="41.1171875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57.7109375" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+    <col min="9" max="9" width="27.42578125" customWidth="1"/>
+    <col min="11" max="11" width="41.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -884,7 +884,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -898,7 +898,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>42</v>
       </c>
@@ -921,7 +921,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>42</v>
       </c>
@@ -944,7 +944,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>88</v>
       </c>
@@ -964,7 +964,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -978,7 +978,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -992,7 +992,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -1006,7 +1006,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1020,7 +1020,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>52</v>
       </c>
@@ -1050,7 +1050,7 @@
       <c r="D11" s="5"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1065,7 +1065,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -1082,7 +1082,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1093,7 +1093,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>73</v>
       </c>
@@ -1101,7 +1101,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1109,7 +1109,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="6"/>
     </row>
   </sheetData>
@@ -1126,14 +1126,14 @@
       <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34" customWidth="1"/>
-    <col min="2" max="2" width="44.703125" customWidth="1"/>
-    <col min="3" max="3" width="19.1171875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="10" customFormat="1" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
@@ -1144,7 +1144,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -1155,7 +1155,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -1166,7 +1166,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -1177,7 +1177,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -1188,7 +1188,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -1199,7 +1199,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -1210,7 +1210,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -1221,7 +1221,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -1232,7 +1232,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -1243,7 +1243,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -1254,7 +1254,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>53</v>
       </c>
@@ -1265,7 +1265,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>53</v>
       </c>
@@ -1276,7 +1276,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -1287,7 +1287,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>53</v>
       </c>
@@ -1298,7 +1298,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>53</v>
       </c>
@@ -1309,7 +1309,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>53</v>
       </c>
@@ -1320,11 +1320,11 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>51</v>
       </c>
@@ -1335,7 +1335,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>51</v>
       </c>
@@ -1346,7 +1346,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>51</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>51</v>
       </c>
@@ -1368,7 +1368,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>51</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>51</v>
       </c>
@@ -1390,7 +1390,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>51</v>
       </c>
@@ -1401,7 +1401,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>51</v>
       </c>
@@ -1412,7 +1412,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>51</v>
       </c>
@@ -1423,7 +1423,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>51</v>
       </c>
@@ -1434,7 +1434,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>87</v>
       </c>
@@ -1445,7 +1445,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>87</v>
       </c>
@@ -1465,19 +1465,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="56" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.1171875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1171875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5859375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1491,15 +1491,15 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" t="s">
         <v>104</v>
       </c>
-      <c r="B2" t="s">
-        <v>105</v>
-      </c>
       <c r="C2">
-        <v>20200817</v>
+        <v>20200819</v>
       </c>
       <c r="D2" t="s">
         <v>49</v>

--- a/LF/PreTAS/Ivory Coast/civ_pretas_resultats.xlsx
+++ b/LF/PreTAS/Ivory Coast/civ_pretas_resultats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\LF\PreTAS\Ivory Coast\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{030DF43F-6106-456F-88C2-B0A54EA5A7F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03525CB2-7FA8-4632-8D1D-0C1C4156714B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="106">
   <si>
     <t>form_title</t>
   </si>
@@ -110,9 +110,6 @@
     <t>photo</t>
   </si>
   <si>
-    <t>Code opérateurs</t>
-  </si>
-  <si>
     <t>A. Absence de ligne témoin</t>
   </si>
   <si>
@@ -344,10 +341,13 @@
     <t>regex(., '^[0-9]{3}-[0-9]{6}$')</t>
   </si>
   <si>
-    <t>ci_pretas_lf_resultats_v6</t>
-  </si>
-  <si>
-    <t>3. Côte d'Ivoire - Pré TAS FL Résultats V6</t>
+    <t>Code opérateurs (Résultat)</t>
+  </si>
+  <si>
+    <t>ci_pretas_lf_resultats_v7</t>
+  </si>
+  <si>
+    <t>3. Côte d'Ivoire - Pré TAS FL Résultats V7</t>
   </si>
 </sst>
 </file>
@@ -830,7 +830,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B36" sqref="B36"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -854,10 +854,10 @@
         <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>5</v>
@@ -866,7 +866,7 @@
         <v>6</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>7</v>
@@ -878,7 +878,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>10</v>
@@ -886,13 +886,13 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="J2" t="s">
         <v>12</v>
@@ -900,22 +900,22 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>103</v>
-      </c>
       <c r="G3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J3" t="s">
         <v>12</v>
@@ -923,22 +923,22 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D4" t="s">
-        <v>102</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>95</v>
-      </c>
       <c r="G4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J4" t="s">
         <v>12</v>
@@ -946,19 +946,19 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
         <v>71</v>
-      </c>
-      <c r="G5" t="s">
-        <v>72</v>
       </c>
       <c r="J5" t="s">
         <v>12</v>
@@ -966,13 +966,13 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J6" t="s">
         <v>12</v>
@@ -983,10 +983,10 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J7" t="s">
         <v>12</v>
@@ -994,16 +994,16 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1011,13 +1011,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1028,24 +1028,24 @@
         <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" t="s">
         <v>52</v>
       </c>
-      <c r="B11" t="s">
-        <v>53</v>
-      </c>
       <c r="C11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D11" s="5"/>
       <c r="H11" s="1"/>
@@ -1055,14 +1055,14 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D12" s="5"/>
       <c r="H12" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -1070,13 +1070,13 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="H13" t="s">
         <v>89</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="H13" t="s">
-        <v>90</v>
       </c>
       <c r="J13" t="s">
         <v>12</v>
@@ -1090,15 +1090,15 @@
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1120,10 +1120,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:XFD49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1141,7 +1141,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1179,145 +1179,145 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>54</v>
-      </c>
       <c r="C13" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1326,7 +1326,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B20">
         <v>10</v>
@@ -1337,7 +1337,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B21">
         <v>11</v>
@@ -1348,7 +1348,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B22">
         <v>12</v>
@@ -1359,7 +1359,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B23">
         <v>13</v>
@@ -1370,7 +1370,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B24">
         <v>14</v>
@@ -1381,7 +1381,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B25">
         <v>15</v>
@@ -1392,7 +1392,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B26">
         <v>16</v>
@@ -1403,7 +1403,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B27">
         <v>17</v>
@@ -1414,7 +1414,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B28">
         <v>18</v>
@@ -1425,7 +1425,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B29">
         <v>19</v>
@@ -1436,24 +1436,134 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30" t="s">
-        <v>84</v>
+        <v>20</v>
+      </c>
+      <c r="C30">
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="B31">
+        <v>21</v>
+      </c>
+      <c r="C31">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32">
+        <v>22</v>
+      </c>
+      <c r="C32">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33">
+        <v>23</v>
+      </c>
+      <c r="C33">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34">
+        <v>24</v>
+      </c>
+      <c r="C34">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35">
+        <v>25</v>
+      </c>
+      <c r="C35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36">
+        <v>26</v>
+      </c>
+      <c r="C36">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37">
+        <v>27</v>
+      </c>
+      <c r="C37">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38">
+        <v>28</v>
+      </c>
+      <c r="C38">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39">
+        <v>29</v>
+      </c>
+      <c r="C39">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>86</v>
+      </c>
+      <c r="B42">
         <v>2</v>
       </c>
-      <c r="C31" t="s">
-        <v>85</v>
+      <c r="C42" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1465,8 +1575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1488,7 +1598,7 @@
         <v>13</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1499,10 +1609,10 @@
         <v>104</v>
       </c>
       <c r="C2">
-        <v>20200819</v>
+        <v>20200824</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
